--- a/PARCIAL II/PRIMER PUNTO.xlsx
+++ b/PARCIAL II/PRIMER PUNTO.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe's\Documents\GitHub\MetodosNumericos\Excels\PARCIAL II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe's\Documents\GitHub\MetodosNumericos\PARCIAL II\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>f(x)=</t>
   </si>
@@ -63,6 +64,18 @@
   </si>
   <si>
     <t>TRAPECIO</t>
+  </si>
+  <si>
+    <t>f(x,y)=</t>
+  </si>
+  <si>
+    <t>(x^2+y^2+3)</t>
+  </si>
+  <si>
+    <t>c=</t>
+  </si>
+  <si>
+    <t>d=</t>
   </si>
 </sst>
 </file>
@@ -108,12 +121,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,6 +176,49 @@
         <a:xfrm>
           <a:off x="600075" y="66675"/>
           <a:ext cx="1323810" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="19050"/>
+          <a:ext cx="1152525" cy="707231"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -439,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,28 +506,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -509,34 +565,34 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -553,7 +609,7 @@
         <f>((2*A13)-(COS((A13)^2)))</f>
         <v>-2.5403023058681398</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f>(2*B13)-(COS(B13^2))</f>
         <v>-2.4894984329517471</v>
       </c>
@@ -583,7 +639,7 @@
         <f>((2*A14)-(COS((A14)^2)))</f>
         <v>-2.4894984329517471</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f>(2*B14)-(COS(B14^2))</f>
         <v>-2.4020957578842927</v>
       </c>
@@ -613,7 +669,7 @@
         <f t="shared" ref="C15:C22" si="2">((2*A15)-(COS((A15)^2)))</f>
         <v>-2.4020957578842927</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" ref="D15:D22" si="3">(2*B15)-(COS(B15^2))</f>
         <v>-2.2823328586101215</v>
       </c>
@@ -643,7 +699,7 @@
         <f t="shared" si="2"/>
         <v>-2.2823328586101215</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f t="shared" si="3"/>
         <v>-2.135896823677935</v>
       </c>
@@ -673,7 +729,7 @@
         <f t="shared" si="2"/>
         <v>-2.135896823677935</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f t="shared" si="3"/>
         <v>-1.9689124217106451</v>
       </c>
@@ -703,7 +759,7 @@
         <f t="shared" si="2"/>
         <v>-1.9689124217106451</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f t="shared" si="3"/>
         <v>-1.7872272833756271</v>
       </c>
@@ -733,7 +789,7 @@
         <f t="shared" si="2"/>
         <v>-1.7872272833756271</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f t="shared" si="3"/>
         <v>-1.5959527330119947</v>
       </c>
@@ -763,7 +819,7 @@
         <f t="shared" si="2"/>
         <v>-1.5959527330119947</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f t="shared" si="3"/>
         <v>-1.3992001066609783</v>
       </c>
@@ -793,7 +849,7 @@
         <f t="shared" si="2"/>
         <v>-1.3992001066609783</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f t="shared" si="3"/>
         <v>-1.1999500004166657</v>
       </c>
@@ -823,7 +879,7 @@
         <f t="shared" si="2"/>
         <v>-1.1999500004166657</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f t="shared" si="3"/>
         <v>-1.0000000000000002</v>
       </c>
@@ -863,4 +919,439 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <f>(B7-B6)/B10</f>
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>B6</f>
+        <v>-1</v>
+      </c>
+      <c r="B16">
+        <f>A16+$B$11</f>
+        <v>-0.9</v>
+      </c>
+      <c r="C16">
+        <f>((2*A16)-(COS((A16)^2)))</f>
+        <v>-2.5403023058681398</v>
+      </c>
+      <c r="D16" s="3">
+        <f>(2*B16)-(COS(B16^2))</f>
+        <v>-2.4894984329517471</v>
+      </c>
+      <c r="E16">
+        <f>IF((ABS(C16))&lt;=(ABS(D16)),(C16*$B$11),(D16*$B$11))</f>
+        <v>-0.24894984329517472</v>
+      </c>
+      <c r="F16">
+        <f>IF((ABS(C16))&lt;=(ABS(D16)),(D16*$B$11),(C16*$B$11))</f>
+        <v>-0.25403023058681401</v>
+      </c>
+      <c r="G16">
+        <f>((C16+D16)*$B$11)/2</f>
+        <v>-0.25149003694099437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>B16</f>
+        <v>-0.9</v>
+      </c>
+      <c r="B17">
+        <f>A17+$B$11</f>
+        <v>-0.8</v>
+      </c>
+      <c r="C17">
+        <f>((2*A17)-(COS((A17)^2)))</f>
+        <v>-2.4894984329517471</v>
+      </c>
+      <c r="D17" s="3">
+        <f>(2*B17)-(COS(B17^2))</f>
+        <v>-2.4020957578842927</v>
+      </c>
+      <c r="E17">
+        <f>IF((ABS(C17))&lt;=(ABS(D17)),(C17*$B$11),(D17*$B$11))</f>
+        <v>-0.24020957578842927</v>
+      </c>
+      <c r="F17">
+        <f>IF((ABS(C17))&lt;=(ABS(D17)),(D17*$B$11),(C17*$B$11))</f>
+        <v>-0.24894984329517472</v>
+      </c>
+      <c r="G17">
+        <f>((C17+D17)*$B$11)/2</f>
+        <v>-0.244579709541802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ref="A18:A25" si="0">B17</f>
+        <v>-0.8</v>
+      </c>
+      <c r="B18">
+        <f>A18+$B$11</f>
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C25" si="1">((2*A18)-(COS((A18)^2)))</f>
+        <v>-2.4020957578842927</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D25" si="2">(2*B18)-(COS(B18^2))</f>
+        <v>-2.2823328586101215</v>
+      </c>
+      <c r="E18">
+        <f>IF((ABS(C18))&lt;=(ABS(D18)),(C18*$B$11),(D18*$B$11))</f>
+        <v>-0.22823328586101216</v>
+      </c>
+      <c r="F18">
+        <f>IF((ABS(C18))&lt;=(ABS(D18)),(D18*$B$11),(C18*$B$11))</f>
+        <v>-0.24020957578842927</v>
+      </c>
+      <c r="G18">
+        <f>((C18+D18)*$B$11)/2</f>
+        <v>-0.23422143082472072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="B19">
+        <f>A19+$B$11</f>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>-2.2823328586101215</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.135896823677935</v>
+      </c>
+      <c r="E19">
+        <f>IF((ABS(C19))&lt;=(ABS(D19)),(C19*$B$11),(D19*$B$11))</f>
+        <v>-0.21358968236779352</v>
+      </c>
+      <c r="F19">
+        <f>IF((ABS(C19))&lt;=(ABS(D19)),(D19*$B$11),(C19*$B$11))</f>
+        <v>-0.22823328586101216</v>
+      </c>
+      <c r="G19">
+        <f>((C19+D19)*$B$11)/2</f>
+        <v>-0.22091148411440284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="B20">
+        <f>A20+$B$11</f>
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>-2.135896823677935</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.9689124217106451</v>
+      </c>
+      <c r="E20">
+        <f>IF((ABS(C20))&lt;=(ABS(D20)),(C20*$B$11),(D20*$B$11))</f>
+        <v>-0.19689124217106452</v>
+      </c>
+      <c r="F20">
+        <f>IF((ABS(C20))&lt;=(ABS(D20)),(D20*$B$11),(C20*$B$11))</f>
+        <v>-0.21358968236779352</v>
+      </c>
+      <c r="G20">
+        <f>((C20+D20)*$B$11)/2</f>
+        <v>-0.20524046226942902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="B21">
+        <f>A21+$B$11</f>
+        <v>-0.40000000000000013</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>-1.9689124217106451</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.7872272833756271</v>
+      </c>
+      <c r="E21">
+        <f>IF((ABS(C21))&lt;=(ABS(D21)),(C21*$B$11),(D21*$B$11))</f>
+        <v>-0.17872272833756273</v>
+      </c>
+      <c r="F21">
+        <f>IF((ABS(C21))&lt;=(ABS(D21)),(D21*$B$11),(C21*$B$11))</f>
+        <v>-0.19689124217106452</v>
+      </c>
+      <c r="G21">
+        <f>((C21+D21)*$B$11)/2</f>
+        <v>-0.18780698525431361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>-0.40000000000000013</v>
+      </c>
+      <c r="B22">
+        <f>A22+$B$11</f>
+        <v>-0.30000000000000016</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>-1.7872272833756271</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.5959527330119947</v>
+      </c>
+      <c r="E22">
+        <f>IF((ABS(C22))&lt;=(ABS(D22)),(C22*$B$11),(D22*$B$11))</f>
+        <v>-0.15959527330119949</v>
+      </c>
+      <c r="F22">
+        <f>IF((ABS(C22))&lt;=(ABS(D22)),(D22*$B$11),(C22*$B$11))</f>
+        <v>-0.17872272833756273</v>
+      </c>
+      <c r="G22">
+        <f>((C22+D22)*$B$11)/2</f>
+        <v>-0.16915900081938109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000016</v>
+      </c>
+      <c r="B23">
+        <f>A23+$B$11</f>
+        <v>-0.20000000000000015</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>-1.5959527330119947</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.3992001066609783</v>
+      </c>
+      <c r="E23">
+        <f>IF((ABS(C23))&lt;=(ABS(D23)),(C23*$B$11),(D23*$B$11))</f>
+        <v>-0.13992001066609783</v>
+      </c>
+      <c r="F23">
+        <f>IF((ABS(C23))&lt;=(ABS(D23)),(D23*$B$11),(C23*$B$11))</f>
+        <v>-0.15959527330119949</v>
+      </c>
+      <c r="G23">
+        <f>((C23+D23)*$B$11)/2</f>
+        <v>-0.14975764198364866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000015</v>
+      </c>
+      <c r="B24">
+        <f>A24+$B$11</f>
+        <v>-0.10000000000000014</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>-1.3992001066609783</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.1999500004166657</v>
+      </c>
+      <c r="E24">
+        <f>IF((ABS(C24))&lt;=(ABS(D24)),(C24*$B$11),(D24*$B$11))</f>
+        <v>-0.11999500004166658</v>
+      </c>
+      <c r="F24">
+        <f>IF((ABS(C24))&lt;=(ABS(D24)),(D24*$B$11),(C24*$B$11))</f>
+        <v>-0.13992001066609783</v>
+      </c>
+      <c r="G24">
+        <f>((C24+D24)*$B$11)/2</f>
+        <v>-0.1299575053538822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000014</v>
+      </c>
+      <c r="B25">
+        <f>A25+$B$11</f>
+        <v>-1.3877787807814457E-16</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>-1.1999500004166657</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000002</v>
+      </c>
+      <c r="E25">
+        <f>IF((ABS(C25))&lt;=(ABS(D25)),(C25*$B$11),(D25*$B$11))</f>
+        <v>-0.10000000000000003</v>
+      </c>
+      <c r="F25">
+        <f>IF((ABS(C25))&lt;=(ABS(D25)),(D25*$B$11),(C25*$B$11))</f>
+        <v>-0.11999500004166658</v>
+      </c>
+      <c r="G25">
+        <f>((C25+D25)*$B$11)/2</f>
+        <v>-0.10999750002083331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f>SUM(E16:E25)</f>
+        <v>-1.8261066418300009</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:G26" si="3">SUM(F16:F25)</f>
+        <v>-1.9801368724168147</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>-1.9031217571234076</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/PARCIAL II/PRIMER PUNTO.xlsx
+++ b/PARCIAL II/PRIMER PUNTO.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="EJEMPLO QUE ENCONTRE" sheetId="5" r:id="rId3"/>
+    <sheet name="PUNTO 1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>f(x)=</t>
   </si>
@@ -76,13 +78,37 @@
   </si>
   <si>
     <t>d=</t>
+  </si>
+  <si>
+    <t>Delta de y=</t>
+  </si>
+  <si>
+    <t>sen (x+y)</t>
+  </si>
+  <si>
+    <t>TRAPECIO DOBLE</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>f(x2)</t>
+  </si>
+  <si>
+    <t>X^2+Y^2+3</t>
+  </si>
+  <si>
+    <t>17 tercios</t>
+  </si>
+  <si>
+    <t>17 cuartos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +120,36 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,11 +175,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -218,6 +280,168 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="190500" y="19050"/>
+          <a:ext cx="1152525" cy="707231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599806</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9525"/>
+          <a:ext cx="2152381" cy="466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56952</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="85725"/>
+          <a:ext cx="1580952" cy="352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56952</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="85725"/>
+          <a:ext cx="1580952" cy="352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>135731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="0"/>
           <a:ext cx="1152525" cy="707231"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -506,7 +730,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
+      <c r="A1" s="10"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -515,7 +739,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -565,13 +789,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -925,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +1160,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
+      <c r="A1" s="10"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -945,7 +1169,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -966,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -974,17 +1198,23 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1035,316 +1265,983 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>B6</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <f>A16+$B$11</f>
-        <v>-0.9</v>
+        <f t="shared" ref="B16:B25" si="0">A16+$B$11</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C16">
         <f>((2*A16)-(COS((A16)^2)))</f>
-        <v>-2.5403023058681398</v>
+        <v>1.4596976941318602</v>
       </c>
       <c r="D16" s="3">
         <f>(2*B16)-(COS(B16^2))</f>
-        <v>-2.4894984329517471</v>
+        <v>1.84698059878067</v>
       </c>
       <c r="E16">
-        <f>IF((ABS(C16))&lt;=(ABS(D16)),(C16*$B$11),(D16*$B$11))</f>
-        <v>-0.24894984329517472</v>
+        <f t="shared" ref="E16:E25" si="1">IF((ABS(C16))&lt;=(ABS(D16)),(C16*$B$11),(D16*$B$11))</f>
+        <v>0.14596976941318604</v>
       </c>
       <c r="F16">
-        <f>IF((ABS(C16))&lt;=(ABS(D16)),(D16*$B$11),(C16*$B$11))</f>
-        <v>-0.25403023058681401</v>
+        <f t="shared" ref="F16:F25" si="2">IF((ABS(C16))&lt;=(ABS(D16)),(D16*$B$11),(C16*$B$11))</f>
+        <v>0.18469805987806701</v>
       </c>
       <c r="G16">
-        <f>((C16+D16)*$B$11)/2</f>
-        <v>-0.25149003694099437</v>
+        <f t="shared" ref="G16:G25" si="3">((C16+D16)*$B$11)/2</f>
+        <v>0.16533391464562652</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>B16</f>
-        <v>-0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B17">
-        <f>A17+$B$11</f>
-        <v>-0.8</v>
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="C17">
         <f>((2*A17)-(COS((A17)^2)))</f>
-        <v>-2.4894984329517471</v>
+        <v>1.84698059878067</v>
       </c>
       <c r="D17" s="3">
         <f>(2*B17)-(COS(B17^2))</f>
-        <v>-2.4020957578842927</v>
+        <v>2.2695762912618553</v>
       </c>
       <c r="E17">
-        <f>IF((ABS(C17))&lt;=(ABS(D17)),(C17*$B$11),(D17*$B$11))</f>
-        <v>-0.24020957578842927</v>
+        <f t="shared" si="1"/>
+        <v>0.18469805987806701</v>
       </c>
       <c r="F17">
-        <f>IF((ABS(C17))&lt;=(ABS(D17)),(D17*$B$11),(C17*$B$11))</f>
-        <v>-0.24894984329517472</v>
+        <f t="shared" si="2"/>
+        <v>0.22695762912618556</v>
       </c>
       <c r="G17">
-        <f>((C17+D17)*$B$11)/2</f>
-        <v>-0.244579709541802</v>
+        <f t="shared" si="3"/>
+        <v>0.20582784450212627</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" ref="A18:A25" si="0">B17</f>
-        <v>-0.8</v>
+        <f t="shared" ref="A18:A25" si="4">B17</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="B18">
-        <f>A18+$B$11</f>
-        <v>-0.70000000000000007</v>
+        <f t="shared" si="0"/>
+        <v>1.3000000000000003</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:C25" si="1">((2*A18)-(COS((A18)^2)))</f>
-        <v>-2.4020957578842927</v>
+        <f t="shared" ref="C18:C25" si="5">((2*A18)-(COS((A18)^2)))</f>
+        <v>2.2695762912618553</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18:D25" si="2">(2*B18)-(COS(B18^2))</f>
-        <v>-2.2823328586101215</v>
+        <f t="shared" ref="D18:D25" si="6">(2*B18)-(COS(B18^2))</f>
+        <v>2.7189215692966133</v>
       </c>
       <c r="E18">
-        <f>IF((ABS(C18))&lt;=(ABS(D18)),(C18*$B$11),(D18*$B$11))</f>
-        <v>-0.22823328586101216</v>
+        <f t="shared" si="1"/>
+        <v>0.22695762912618556</v>
       </c>
       <c r="F18">
-        <f>IF((ABS(C18))&lt;=(ABS(D18)),(D18*$B$11),(C18*$B$11))</f>
-        <v>-0.24020957578842927</v>
+        <f t="shared" si="2"/>
+        <v>0.27189215692966134</v>
       </c>
       <c r="G18">
-        <f>((C18+D18)*$B$11)/2</f>
-        <v>-0.23422143082472072</v>
+        <f t="shared" si="3"/>
+        <v>0.24942489302792345</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>-0.70000000000000007</v>
+        <f t="shared" si="4"/>
+        <v>1.3000000000000003</v>
       </c>
       <c r="B19">
-        <f>A19+$B$11</f>
-        <v>-0.60000000000000009</v>
+        <f t="shared" si="0"/>
+        <v>1.4000000000000004</v>
       </c>
       <c r="C19">
+        <f t="shared" si="5"/>
+        <v>2.7189215692966133</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="6"/>
+        <v>3.1794517647881562</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="1"/>
-        <v>-2.2823328586101215</v>
-      </c>
-      <c r="D19" s="3">
+        <v>0.27189215692966134</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="2"/>
-        <v>-2.135896823677935</v>
-      </c>
-      <c r="E19">
-        <f>IF((ABS(C19))&lt;=(ABS(D19)),(C19*$B$11),(D19*$B$11))</f>
-        <v>-0.21358968236779352</v>
-      </c>
-      <c r="F19">
-        <f>IF((ABS(C19))&lt;=(ABS(D19)),(D19*$B$11),(C19*$B$11))</f>
-        <v>-0.22823328586101216</v>
+        <v>0.31794517647881565</v>
       </c>
       <c r="G19">
-        <f>((C19+D19)*$B$11)/2</f>
-        <v>-0.22091148411440284</v>
+        <f t="shared" si="3"/>
+        <v>0.2949186667042385</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>-0.60000000000000009</v>
+        <f t="shared" si="4"/>
+        <v>1.4000000000000004</v>
       </c>
       <c r="B20">
-        <f>A20+$B$11</f>
-        <v>-0.50000000000000011</v>
+        <f t="shared" si="0"/>
+        <v>1.5000000000000004</v>
       </c>
       <c r="C20">
+        <f t="shared" si="5"/>
+        <v>3.1794517647881562</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="6"/>
+        <v>3.6281736227227412</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="1"/>
-        <v>-2.135896823677935</v>
-      </c>
-      <c r="D20" s="3">
+        <v>0.31794517647881565</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="2"/>
-        <v>-1.9689124217106451</v>
-      </c>
-      <c r="E20">
-        <f>IF((ABS(C20))&lt;=(ABS(D20)),(C20*$B$11),(D20*$B$11))</f>
-        <v>-0.19689124217106452</v>
-      </c>
-      <c r="F20">
-        <f>IF((ABS(C20))&lt;=(ABS(D20)),(D20*$B$11),(C20*$B$11))</f>
-        <v>-0.21358968236779352</v>
+        <v>0.36281736227227412</v>
       </c>
       <c r="G20">
-        <f>((C20+D20)*$B$11)/2</f>
-        <v>-0.20524046226942902</v>
+        <f t="shared" si="3"/>
+        <v>0.34038126937554491</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
-        <v>-0.50000000000000011</v>
+        <f t="shared" si="4"/>
+        <v>1.5000000000000004</v>
       </c>
       <c r="B21">
-        <f>A21+$B$11</f>
-        <v>-0.40000000000000013</v>
+        <f t="shared" si="0"/>
+        <v>1.6000000000000005</v>
       </c>
       <c r="C21">
+        <f t="shared" si="5"/>
+        <v>3.6281736227227412</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="6"/>
+        <v>4.0355887771314096</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="1"/>
-        <v>-1.9689124217106451</v>
-      </c>
-      <c r="D21" s="3">
+        <v>0.36281736227227412</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="2"/>
-        <v>-1.7872272833756271</v>
-      </c>
-      <c r="E21">
-        <f>IF((ABS(C21))&lt;=(ABS(D21)),(C21*$B$11),(D21*$B$11))</f>
-        <v>-0.17872272833756273</v>
-      </c>
-      <c r="F21">
-        <f>IF((ABS(C21))&lt;=(ABS(D21)),(D21*$B$11),(C21*$B$11))</f>
-        <v>-0.19689124217106452</v>
+        <v>0.40355887771314097</v>
       </c>
       <c r="G21">
-        <f>((C21+D21)*$B$11)/2</f>
-        <v>-0.18780698525431361</v>
+        <f t="shared" si="3"/>
+        <v>0.38318811999270758</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
-        <v>-0.40000000000000013</v>
+        <f t="shared" si="4"/>
+        <v>1.6000000000000005</v>
       </c>
       <c r="B22">
-        <f>A22+$B$11</f>
-        <v>-0.30000000000000016</v>
+        <f t="shared" si="0"/>
+        <v>1.7000000000000006</v>
       </c>
       <c r="C22">
+        <f t="shared" si="5"/>
+        <v>4.0355887771314096</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="6"/>
+        <v>4.3685171642284484</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="1"/>
-        <v>-1.7872272833756271</v>
-      </c>
-      <c r="D22" s="3">
+        <v>0.40355887771314097</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="2"/>
-        <v>-1.5959527330119947</v>
-      </c>
-      <c r="E22">
-        <f>IF((ABS(C22))&lt;=(ABS(D22)),(C22*$B$11),(D22*$B$11))</f>
-        <v>-0.15959527330119949</v>
-      </c>
-      <c r="F22">
-        <f>IF((ABS(C22))&lt;=(ABS(D22)),(D22*$B$11),(C22*$B$11))</f>
-        <v>-0.17872272833756273</v>
+        <v>0.43685171642284487</v>
       </c>
       <c r="G22">
-        <f>((C22+D22)*$B$11)/2</f>
-        <v>-0.16915900081938109</v>
+        <f t="shared" si="3"/>
+        <v>0.42020529706799298</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
-        <v>-0.30000000000000016</v>
+        <f t="shared" si="4"/>
+        <v>1.7000000000000006</v>
       </c>
       <c r="B23">
-        <f>A23+$B$11</f>
-        <v>-0.20000000000000015</v>
+        <f t="shared" si="0"/>
+        <v>1.8000000000000007</v>
       </c>
       <c r="C23">
+        <f t="shared" si="5"/>
+        <v>4.3685171642284484</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="6"/>
+        <v>4.5951619033238318</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="1"/>
-        <v>-1.5959527330119947</v>
-      </c>
-      <c r="D23" s="3">
+        <v>0.43685171642284487</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="2"/>
-        <v>-1.3992001066609783</v>
-      </c>
-      <c r="E23">
-        <f>IF((ABS(C23))&lt;=(ABS(D23)),(C23*$B$11),(D23*$B$11))</f>
-        <v>-0.13992001066609783</v>
-      </c>
-      <c r="F23">
-        <f>IF((ABS(C23))&lt;=(ABS(D23)),(D23*$B$11),(C23*$B$11))</f>
-        <v>-0.15959527330119949</v>
+        <v>0.45951619033238322</v>
       </c>
       <c r="G23">
-        <f>((C23+D23)*$B$11)/2</f>
-        <v>-0.14975764198364866</v>
+        <f t="shared" si="3"/>
+        <v>0.44818395337761407</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
-        <v>-0.20000000000000015</v>
+        <f t="shared" si="4"/>
+        <v>1.8000000000000007</v>
       </c>
       <c r="B24">
-        <f>A24+$B$11</f>
-        <v>-0.10000000000000014</v>
+        <f t="shared" si="0"/>
+        <v>1.9000000000000008</v>
       </c>
       <c r="C24">
+        <f t="shared" si="5"/>
+        <v>4.5951619033238318</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="6"/>
+        <v>4.6922884481070684</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="1"/>
-        <v>-1.3992001066609783</v>
-      </c>
-      <c r="D24" s="3">
+        <v>0.45951619033238322</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="2"/>
-        <v>-1.1999500004166657</v>
-      </c>
-      <c r="E24">
-        <f>IF((ABS(C24))&lt;=(ABS(D24)),(C24*$B$11),(D24*$B$11))</f>
-        <v>-0.11999500004166658</v>
-      </c>
-      <c r="F24">
-        <f>IF((ABS(C24))&lt;=(ABS(D24)),(D24*$B$11),(C24*$B$11))</f>
-        <v>-0.13992001066609783</v>
+        <v>0.46922884481070687</v>
       </c>
       <c r="G24">
-        <f>((C24+D24)*$B$11)/2</f>
-        <v>-0.1299575053538822</v>
+        <f t="shared" si="3"/>
+        <v>0.46437251757154502</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
-        <v>-0.10000000000000014</v>
+        <f t="shared" si="4"/>
+        <v>1.9000000000000008</v>
       </c>
       <c r="B25">
-        <f>A25+$B$11</f>
-        <v>-1.3877787807814457E-16</v>
+        <f t="shared" si="0"/>
+        <v>2.0000000000000009</v>
       </c>
       <c r="C25">
+        <f t="shared" si="5"/>
+        <v>4.6922884481070684</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="6"/>
+        <v>4.6536436208636109</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="1"/>
-        <v>-1.1999500004166657</v>
-      </c>
-      <c r="D25" s="3">
+        <v>0.46536436208636112</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="2"/>
-        <v>-1.0000000000000002</v>
-      </c>
-      <c r="E25">
-        <f>IF((ABS(C25))&lt;=(ABS(D25)),(C25*$B$11),(D25*$B$11))</f>
-        <v>-0.10000000000000003</v>
-      </c>
-      <c r="F25">
-        <f>IF((ABS(C25))&lt;=(ABS(D25)),(D25*$B$11),(C25*$B$11))</f>
-        <v>-0.11999500004166658</v>
+        <v>0.46922884481070687</v>
       </c>
       <c r="G25">
-        <f>((C25+D25)*$B$11)/2</f>
-        <v>-0.10999750002083331</v>
+        <f t="shared" si="3"/>
+        <v>0.46729660344853396</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E26">
         <f>SUM(E16:E25)</f>
-        <v>-1.8261066418300009</v>
+        <v>3.2755713006529197</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:G26" si="3">SUM(F16:F25)</f>
-        <v>-1.9801368724168147</v>
+        <f t="shared" ref="F26:G26" si="7">SUM(F16:F25)</f>
+        <v>3.6026948587747869</v>
       </c>
       <c r="G26">
+        <f t="shared" si="7"/>
+        <v>3.4391330797138533</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <f>(B7-B6)/B10</f>
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <f>(B9-B8)/B10</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f>A16+$B$11</f>
+        <v>0.5</v>
+      </c>
+      <c r="C16">
+        <f>B16+$B$11</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:F18" si="0">SIN(A16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47942553860420301</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8414709848078965</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="7">
+        <f>IF((ABS(D16))&lt;=(ABS(E16)),(D16*$B$11),(E16*$B$11))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <f>IF((ABS(D16))&lt;=(ABS(E16)),(E16*$B$11),(D16*$B$11))</f>
+        <v>0.2397127693021015</v>
+      </c>
+      <c r="J16" s="5">
+        <f>((D16+2*E16+F16)*$B$11)/2</f>
+        <v>0.45008051550407563</v>
+      </c>
+      <c r="L16">
+        <f>((D16+2*E16+F16)*$B$12)/2</f>
+        <v>0.45008051550407563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>B16</f>
+        <v>0.5</v>
+      </c>
+      <c r="B17">
+        <f>C16</f>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>B17+$B$11</f>
+        <v>1.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.47942553860420301</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8414709848078965</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99749498660405445</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="7">
+        <f>IF((ABS(D17))&lt;=(ABS(E17)),(D17*$B$11),(E17*$B$11))</f>
+        <v>0.2397127693021015</v>
+      </c>
+      <c r="I17" s="7">
+        <f>IF((ABS(D17))&lt;=(ABS(E17)),(E17*$B$11),(D17*$B$11))</f>
+        <v>0.42073549240394825</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" ref="J17:J18" si="1">((D17+2*E17+F17)*$B$11)/2</f>
+        <v>0.78996562370601264</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L18" si="2">((D17+2*E17+F17)*$B$12)/2</f>
+        <v>0.78996562370601264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>C17</f>
+        <v>1.5</v>
+      </c>
+      <c r="C18">
+        <f>B18+$B$11</f>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.8414709848078965</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99749498660405445</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90929742682568171</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="7">
+        <f>IF((ABS(D18))&lt;=(ABS(E18)),(D18*$B$11),(E18*$B$11))</f>
+        <v>0.42073549240394825</v>
+      </c>
+      <c r="I18" s="7">
+        <f>IF((ABS(D18))&lt;=(ABS(E18)),(E18*$B$11),(D18*$B$11))</f>
+        <v>0.49874749330202722</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.93643959621042172</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.93643959621042172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="L19" s="5">
+        <f>((L16+2*L17+L18)*$B$12)/2</f>
+        <v>0.74161283978163062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <f>(B7-B6)/B10</f>
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <f>(B9-B8)/B10</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f>A16+$B$11</f>
+        <v>0.5</v>
+      </c>
+      <c r="C16">
+        <f>B16+$B$11</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f>(A16^2)+3</f>
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f>(B16^2)+3</f>
+        <v>3.25</v>
+      </c>
+      <c r="F16">
+        <f>(C16^2)+3</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="7">
+        <f>IF((ABS(D16))&lt;=(ABS(E16)),(D16*$B$11),(E16*$B$11))</f>
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="7">
+        <f>IF((ABS(D16))&lt;=(ABS(E16)),(E16*$B$11),(D16*$B$11))</f>
+        <v>1.625</v>
+      </c>
+      <c r="J16" s="5">
+        <f>((D16+2*E16+F16)*$B$11)/2</f>
+        <v>3.375</v>
+      </c>
+      <c r="L16">
+        <f>((D16+2*E16+F16)*$B$12)/2</f>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>B16</f>
+        <v>0.5</v>
+      </c>
+      <c r="B17">
+        <f>C16</f>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>B17+$B$11</f>
+        <v>1.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D18" si="0">(A17^2)+3</f>
+        <v>3.25</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E18" si="1">(B17^2)+3</f>
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F18" si="2">(C17^2)+3</f>
+        <v>5.25</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="7">
+        <f>IF((ABS(D17))&lt;=(ABS(E17)),(D17*$B$11),(E17*$B$11))</f>
+        <v>1.625</v>
+      </c>
+      <c r="I17" s="7">
+        <f>IF((ABS(D17))&lt;=(ABS(E17)),(E17*$B$11),(D17*$B$11))</f>
+        <v>2</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" ref="J17:J18" si="3">((D17+2*E17+F17)*$B$11)/2</f>
+        <v>4.125</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L18" si="4">((D17+2*E17+F17)*$B$12)/2</f>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>C17</f>
+        <v>1.5</v>
+      </c>
+      <c r="C18">
+        <f>B18+$B$11</f>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="7">
+        <f>IF((ABS(D18))&lt;=(ABS(E18)),(D18*$B$11),(E18*$B$11))</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <f>IF((ABS(D18))&lt;=(ABS(E18)),(E18*$B$11),(D18*$B$11))</f>
+        <v>2.625</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="3"/>
-        <v>-1.9031217571234076</v>
-      </c>
+        <v>5.375</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="L19" s="5">
+        <f>((L16+2*L17+L18)*$B$12)/2</f>
+        <v>4.25</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/PARCIAL II/PRIMER PUNTO.xlsx
+++ b/PARCIAL II/PRIMER PUNTO.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe's\Documents\GitHub\MetodosNumericos\PARCIAL II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\GitHub\MetodosNumericos\PARCIAL II\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESTE" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>a=</t>
   </si>
@@ -75,12 +75,18 @@
   </si>
   <si>
     <t>0 a  2</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,11 +120,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -129,6 +150,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,7 +189,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -451,11 +483,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,6 +529,9 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -504,6 +539,9 @@
       </c>
       <c r="B7">
         <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -513,6 +551,9 @@
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -520,6 +561,9 @@
       </c>
       <c r="B9">
         <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -562,19 +606,19 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="2"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -583,28 +627,28 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K16" s="2"/>
@@ -613,533 +657,533 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="8">
         <f>$B$8</f>
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <f>B8</f>
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <f>(A17)^2+(B17)^2+3</f>
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <f>C17*$B$11*$B$12</f>
         <v>0.75</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
         <f>(F17)^2+(G17)^2+3</f>
         <v>3</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="8">
         <f>H17*$B$11*$B$12</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="8">
         <f>$B$8</f>
         <v>0</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <f>B17+$B$11</f>
         <v>0.5</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <f>(A18)^2+(B18)^2+3</f>
         <v>3.25</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <f>C18*$B$11*$B$12</f>
         <v>0.8125</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="8">
         <f>$B$12</f>
         <v>0.5</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="8">
         <f>$B$8</f>
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="8">
         <f>(F18)^2+(G18)^2+3</f>
         <v>3.25</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="8">
         <f>H18*$B$11*$B$12</f>
         <v>0.8125</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="8">
         <f t="shared" ref="A19:A21" si="0">$B$8</f>
         <v>0</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
         <f>(A19)^2+(B19)^2+3</f>
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <f>C19*$B$11*$B$12</f>
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <f>$B$12+F18</f>
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="8">
         <f t="shared" ref="G19:G21" si="1">$B$8</f>
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="8">
         <f>(F19)^2+(G19)^2+3</f>
         <v>4</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="8">
         <f>H19*$B$11*$B$12</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <f>B19+$B$11</f>
         <v>1.5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <f t="shared" ref="C20:C21" si="2">(A20)^2+(B20)^2+3</f>
         <v>5.25</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <f t="shared" ref="D20:D21" si="3">C20*$B$11*$B$12</f>
         <v>1.3125</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="8">
         <f>$B$12+F19</f>
         <v>1.5</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="8">
         <f>(F20)^2+(G20)^2+3</f>
         <v>5.25</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="8">
         <f>H20*$B$11*$B$12</f>
         <v>1.3125</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="8">
         <f t="shared" ref="F21" si="4">$B$12+F20</f>
         <v>2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="8">
         <f>(F21)^2+(G21)^2+3</f>
         <v>7</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="8">
         <f>H21*$B$11*$B$12</f>
         <v>1.75</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="8">
         <f>$F$18</f>
         <v>0.5</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <f>B17</f>
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <f>(A22)^2+(B22)^2+3</f>
         <v>3.25</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <f>C22*$B$11*$B$12</f>
         <v>0.8125</v>
       </c>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="8">
         <f>$F$18</f>
         <v>0.5</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <f>B22+$B$11</f>
         <v>0.5</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <f t="shared" ref="C23:C41" si="5">(A23)^2+(B23)^2+3</f>
         <v>3.5</v>
       </c>
-      <c r="D23">
-        <f t="shared" ref="D23:D26" si="6">C23*$B$11*$B$12</f>
+      <c r="D23" s="8">
+        <f t="shared" ref="D23:D25" si="6">C23*$B$11*$B$12</f>
         <v>0.875</v>
       </c>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="8">
         <f>$F$18</f>
         <v>0.5</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <f>B23+$B$11</f>
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <f t="shared" si="5"/>
         <v>4.25</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <f t="shared" si="6"/>
         <v>1.0625</v>
       </c>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="8">
         <f>$F$18</f>
         <v>0.5</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <f>B24+$B$11</f>
         <v>1.5</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <f t="shared" si="6"/>
         <v>1.375</v>
       </c>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="8">
         <f>$F$18</f>
         <v>0.5</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <f>B25+$B$11</f>
         <v>2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <f t="shared" si="5"/>
         <v>7.25</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="8">
         <f>C26*$B$11*$B$12</f>
         <v>1.8125</v>
       </c>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="8">
         <f>$F$19</f>
         <v>1</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <f>B17</f>
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <f t="shared" ref="D27:D41" si="7">C27*$B$11*$B$12</f>
         <v>1</v>
       </c>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="8">
         <f>$F$19</f>
         <v>1</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <f>B27+$B$12</f>
         <v>0.5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="8">
         <f t="shared" si="5"/>
         <v>4.25</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="8">
         <f t="shared" si="7"/>
         <v>1.0625</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="8">
         <f>$F$19</f>
         <v>1</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <f t="shared" ref="B29:B31" si="8">B28+$B$12</f>
         <v>1</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="8">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="8">
         <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="8">
         <f>$F$19</f>
         <v>1</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="8">
         <f t="shared" si="5"/>
         <v>6.25</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="8">
         <f t="shared" si="7"/>
         <v>1.5625</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="8">
         <f>$F$19</f>
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="8">
         <f>$F$20</f>
         <v>1.5</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <f>B17</f>
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="8">
         <f t="shared" si="5"/>
         <v>5.25</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <f t="shared" si="7"/>
         <v>1.3125</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="8">
         <f>$F$20</f>
         <v>1.5</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <f>B32+$B$12</f>
         <v>0.5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="8">
         <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="8">
         <f t="shared" si="7"/>
         <v>1.375</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="8">
         <f>$F$20</f>
         <v>1.5</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <f t="shared" ref="B34:B36" si="9">B33+$B$12</f>
         <v>1</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="8">
         <f t="shared" si="5"/>
         <v>6.25</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="8">
         <f t="shared" si="7"/>
         <v>1.5625</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="8">
         <f>$F$20</f>
         <v>1.5</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="8">
         <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="8">
         <f t="shared" si="7"/>
         <v>1.875</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="8">
         <f>$F$20</f>
         <v>1.5</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="8">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="8">
         <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="8">
         <f t="shared" si="7"/>
         <v>2.3125</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="8">
         <f>F$21</f>
         <v>2</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="8">
         <f>B27</f>
         <v>0</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="8">
         <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="8">
         <f>F$21</f>
         <v>2</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="8">
         <f>B37+$B$12</f>
         <v>0.5</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="8">
         <f t="shared" si="5"/>
         <v>7.25</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="8">
         <f t="shared" si="7"/>
         <v>1.8125</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="8">
         <f>F$21</f>
         <v>2</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="8">
         <f t="shared" ref="B39:B41" si="10">B38+$B$12</f>
         <v>1</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="8">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="8">
         <f>F$21</f>
         <v>2</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="8">
         <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="8">
         <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="8">
         <f t="shared" si="7"/>
         <v>2.3125</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="8">
         <f>F$21</f>
         <v>2</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="8">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="8">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="8">
         <f t="shared" si="7"/>
         <v>2.75</v>
       </c>

--- a/PARCIAL II/PRIMER PUNTO.xlsx
+++ b/PARCIAL II/PRIMER PUNTO.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESTE" sheetId="10" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="11" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>a=</t>
   </si>
@@ -81,6 +83,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -139,22 +144,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,6 +181,1971 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Temperatura</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0005999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0006999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0007999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0008999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0010999999999901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0011999999999901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0012999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0013999999999901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0014999999999901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0015999999999901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.00169999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.00179999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.00189999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.00199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$2:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>15.104653384897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.209192311789399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.313616895858701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.4179272521719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.522123495681599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.626205741225601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.7301741035278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.834028697197599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.937769636730501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.041397036507998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.1449110107976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.2483116737532</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.351599139415001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.4547735217098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.557834934450799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.660783491337899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.763619305958098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.866342491785002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.9689531621793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.071451430388901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.173837409549101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F217-4E05-AF16-9492A2DE75D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="524045264"/>
+        <c:axId val="524048872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="524045264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524048872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="524048872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524045264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0005999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0006999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0007999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0008999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0010999999999901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0011999999999901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0012999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0013999999999901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0014999999999901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0015999999999901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.00169999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.00179999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.00189999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.00199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$I$2:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.99990035162010205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99980071304482498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99970108427344395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99960146530523497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99950185613947296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99940225677543304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99930266721239003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99920308744961694</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99910351748638704</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999003957321973</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99890440695564597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99880486638667998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99870533561434405</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99860581463790998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99850630345664704</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99840680206982602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99830731047671395</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99820782867658198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99810835666869502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99800889445232399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99790944202673304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5ACF-41B6-A649-AB123A41D3DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="520723008"/>
+        <c:axId val="316332800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="520723008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316332800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316332800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520723008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -216,6 +2192,88 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFDF51E6-80DE-4174-926C-6E75131CD7C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12F34FB-AABF-470F-A02C-47405A493E75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -486,7 +2544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -497,7 +2555,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
+      <c r="A1" s="6"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -506,7 +2564,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -606,49 +2664,49 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K16" s="2"/>
@@ -657,533 +2715,533 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="5">
         <f>$B$8</f>
         <v>0</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="5">
         <f>B8</f>
         <v>0</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <f>(A17)^2+(B17)^2+3</f>
         <v>3</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <f>C17*$B$11*$B$12</f>
         <v>0.75</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="5">
         <v>0</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="5">
         <v>0</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="5">
         <f>(F17)^2+(G17)^2+3</f>
         <v>3</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="5">
         <f>H17*$B$11*$B$12</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <f>$B$8</f>
         <v>0</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="5">
         <f>B17+$B$11</f>
         <v>0.5</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <f>(A18)^2+(B18)^2+3</f>
         <v>3.25</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <f>C18*$B$11*$B$12</f>
         <v>0.8125</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="5">
         <f>$B$12</f>
         <v>0.5</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="5">
         <f>$B$8</f>
         <v>0</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="5">
         <f>(F18)^2+(G18)^2+3</f>
         <v>3.25</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="5">
         <f>H18*$B$11*$B$12</f>
         <v>0.8125</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
         <f t="shared" ref="A19:A21" si="0">$B$8</f>
         <v>0</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="5">
         <v>1</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <f>(A19)^2+(B19)^2+3</f>
         <v>4</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <f>C19*$B$11*$B$12</f>
         <v>1</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <f>$B$12+F18</f>
         <v>1</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="5">
         <f t="shared" ref="G19:G21" si="1">$B$8</f>
         <v>0</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="5">
         <f>(F19)^2+(G19)^2+3</f>
         <v>4</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="5">
         <f>H19*$B$11*$B$12</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="5">
         <f>B19+$B$11</f>
         <v>1.5</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <f t="shared" ref="C20:C21" si="2">(A20)^2+(B20)^2+3</f>
         <v>5.25</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <f t="shared" ref="D20:D21" si="3">C20*$B$11*$B$12</f>
         <v>1.3125</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="5">
         <f>$B$12+F19</f>
         <v>1.5</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="5">
         <f>(F20)^2+(G20)^2+3</f>
         <v>5.25</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="5">
         <f>H20*$B$11*$B$12</f>
         <v>1.3125</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="5">
         <v>2</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="5">
         <f t="shared" ref="F21" si="4">$B$12+F20</f>
         <v>2</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="5">
         <f>(F21)^2+(G21)^2+3</f>
         <v>7</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="5">
         <f>H21*$B$11*$B$12</f>
         <v>1.75</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="5">
         <f>$F$18</f>
         <v>0.5</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="5">
         <f>B17</f>
         <v>0</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <f>(A22)^2+(B22)^2+3</f>
         <v>3.25</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <f>C22*$B$11*$B$12</f>
         <v>0.8125</v>
       </c>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="5">
         <f>$F$18</f>
         <v>0.5</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="5">
         <f>B22+$B$11</f>
         <v>0.5</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <f t="shared" ref="C23:C41" si="5">(A23)^2+(B23)^2+3</f>
         <v>3.5</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <f t="shared" ref="D23:D25" si="6">C23*$B$11*$B$12</f>
         <v>0.875</v>
       </c>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="5">
         <f>$F$18</f>
         <v>0.5</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="5">
         <f>B23+$B$11</f>
         <v>1</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="5">
         <f t="shared" si="5"/>
         <v>4.25</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="5">
         <f t="shared" si="6"/>
         <v>1.0625</v>
       </c>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="5">
         <f>$F$18</f>
         <v>0.5</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="5">
         <f>B24+$B$11</f>
         <v>1.5</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <f t="shared" si="6"/>
         <v>1.375</v>
       </c>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="5">
         <f>$F$18</f>
         <v>0.5</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="5">
         <f>B25+$B$11</f>
         <v>2</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <f t="shared" si="5"/>
         <v>7.25</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="5">
         <f>C26*$B$11*$B$12</f>
         <v>1.8125</v>
       </c>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="5">
         <f>$F$19</f>
         <v>1</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="5">
         <f>B17</f>
         <v>0</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <f t="shared" ref="D27:D41" si="7">C27*$B$11*$B$12</f>
         <v>1</v>
       </c>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="5">
         <f>$F$19</f>
         <v>1</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="5">
         <f>B27+$B$12</f>
         <v>0.5</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="5">
         <f t="shared" si="5"/>
         <v>4.25</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="5">
         <f t="shared" si="7"/>
         <v>1.0625</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="5">
         <f>$F$19</f>
         <v>1</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="5">
         <f t="shared" ref="B29:B31" si="8">B28+$B$12</f>
         <v>1</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="5">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="5">
         <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="5">
         <f>$F$19</f>
         <v>1</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="5">
         <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="5">
         <f t="shared" si="5"/>
         <v>6.25</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="5">
         <f t="shared" si="7"/>
         <v>1.5625</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="5">
         <f>$F$19</f>
         <v>1</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="5">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="5">
         <f>$F$20</f>
         <v>1.5</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="5">
         <f>B17</f>
         <v>0</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="5">
         <f t="shared" si="5"/>
         <v>5.25</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="5">
         <f t="shared" si="7"/>
         <v>1.3125</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="5">
         <f>$F$20</f>
         <v>1.5</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="5">
         <f>B32+$B$12</f>
         <v>0.5</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="5">
         <f t="shared" si="7"/>
         <v>1.375</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="5">
         <f>$F$20</f>
         <v>1.5</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="5">
         <f t="shared" ref="B34:B36" si="9">B33+$B$12</f>
         <v>1</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="5">
         <f t="shared" si="5"/>
         <v>6.25</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="5">
         <f t="shared" si="7"/>
         <v>1.5625</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="5">
         <f>$F$20</f>
         <v>1.5</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="5">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="5">
         <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="5">
         <f t="shared" si="7"/>
         <v>1.875</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="5">
         <f>$F$20</f>
         <v>1.5</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="5">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="5">
         <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="5">
         <f t="shared" si="7"/>
         <v>2.3125</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="5">
         <f>F$21</f>
         <v>2</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="5">
         <f>B27</f>
         <v>0</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="5">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="5">
         <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="5">
         <f>F$21</f>
         <v>2</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="5">
         <f>B37+$B$12</f>
         <v>0.5</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="5">
         <f t="shared" si="5"/>
         <v>7.25</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="5">
         <f t="shared" si="7"/>
         <v>1.8125</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="5">
         <f>F$21</f>
         <v>2</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="5">
         <f t="shared" ref="B39:B41" si="10">B38+$B$12</f>
         <v>1</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="5">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="5">
         <f>F$21</f>
         <v>2</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="5">
         <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="5">
         <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="5">
         <f t="shared" si="7"/>
         <v>2.3125</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="5">
         <f>F$21</f>
         <v>2</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="5">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="5">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="5">
         <f t="shared" si="7"/>
         <v>2.75</v>
       </c>
@@ -1199,4 +3257,1189 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D434D43-8227-4F31-8F36-71AB8202EA02}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>15</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1046.5337989703601</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1046.5337989703601</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1046.5338489703599</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1046.5338489703599</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1046.53389897036</v>
+      </c>
+      <c r="I2" s="10">
+        <v>15.104653384897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10">
+        <v>1.0001</v>
+      </c>
+      <c r="C3" s="10">
+        <v>15.104653384897</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1045.3892189236401</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1045.3892189236401</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1045.38926892364</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1045.38926892364</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1045.3893189236401</v>
+      </c>
+      <c r="I3" s="10">
+        <v>15.209192311789399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10">
+        <v>1.0002</v>
+      </c>
+      <c r="C4" s="10">
+        <v>15.209192311789399</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1044.24579069319</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1044.24579069319</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1044.2458406931901</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1044.2458406931901</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1044.2458906931899</v>
+      </c>
+      <c r="I4" s="10">
+        <v>15.313616895858701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10">
+        <v>1.0003</v>
+      </c>
+      <c r="C5" s="10">
+        <v>15.313616895858701</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1043.10351313256</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1043.10351313256</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1043.1035631325601</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1043.1035631325601</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1043.10361313256</v>
+      </c>
+      <c r="I5" s="10">
+        <v>15.4179272521719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10">
+        <v>1.0004</v>
+      </c>
+      <c r="C6" s="10">
+        <v>15.4179272521719</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1041.9623850963901</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1041.9623850963901</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1041.96243509639</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1041.96243509639</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1041.9624850963901</v>
+      </c>
+      <c r="I6" s="10">
+        <v>15.522123495681599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10">
+        <v>1.0004999999999999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>15.522123495681599</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1040.82240544048</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1040.82240544048</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1040.8224554404801</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1040.8224554404801</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1040.82250544048</v>
+      </c>
+      <c r="I7" s="10">
+        <v>15.626205741225601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10">
+        <v>1.0005999999999999</v>
+      </c>
+      <c r="C8" s="10">
+        <v>15.626205741225601</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1039.6835730217399</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1039.6835730217399</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1039.68362302174</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1039.68362302174</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1039.6836730217401</v>
+      </c>
+      <c r="I8" s="10">
+        <v>15.7301741035278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10">
+        <v>1.0006999999999999</v>
+      </c>
+      <c r="C9" s="10">
+        <v>15.7301741035278</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1038.5458866982001</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1038.5458866982001</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1038.5459366982</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1038.5459366982</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1038.5459866982001</v>
+      </c>
+      <c r="I9" s="10">
+        <v>15.834028697197599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10">
+        <v>1.0007999999999999</v>
+      </c>
+      <c r="C10" s="10">
+        <v>15.834028697197599</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1037.40934532903</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1037.40934532903</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1037.4093953290301</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1037.4093953290301</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1037.4094453290299</v>
+      </c>
+      <c r="I10" s="10">
+        <v>15.937769636730501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10">
+        <v>1.0008999999999999</v>
+      </c>
+      <c r="C11" s="10">
+        <v>15.937769636730501</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1036.2739477744999</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1036.2739477744999</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1036.2739977745</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1036.2739977745</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1036.2740477745001</v>
+      </c>
+      <c r="I11" s="10">
+        <v>16.041397036507998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C12" s="10">
+        <v>16.041397036507998</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1035.1396928960201</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1035.1396928960201</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1035.1397428960199</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1035.1397428960199</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1035.13979289602</v>
+      </c>
+      <c r="I12" s="10">
+        <v>16.1449110107976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10">
+        <v>1.0010999999999901</v>
+      </c>
+      <c r="C13" s="10">
+        <v>16.1449110107976</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1034.00657955611</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1034.00657955611</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1034.0066295561101</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1034.0066295561101</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1034.0066795561099</v>
+      </c>
+      <c r="I13" s="10">
+        <v>16.2483116737532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10">
+        <v>1.0011999999999901</v>
+      </c>
+      <c r="C14" s="10">
+        <v>16.2483116737532</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1032.8746066184101</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1032.8746066184101</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1032.87465661841</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1032.87465661841</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1032.8747066184101</v>
+      </c>
+      <c r="I14" s="10">
+        <v>16.351599139415001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10">
+        <v>1.0012999999999901</v>
+      </c>
+      <c r="C15" s="10">
+        <v>16.351599139415001</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1031.7437729476701</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1031.7437729476701</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1031.74382294767</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1031.74382294767</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1031.7438729476701</v>
+      </c>
+      <c r="I15" s="10">
+        <v>16.4547735217098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10">
+        <v>1.0013999999999901</v>
+      </c>
+      <c r="C16" s="10">
+        <v>16.4547735217098</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1030.6140774097701</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1030.6140774097701</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1030.6141274097699</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1030.6141274097699</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1030.61417740977</v>
+      </c>
+      <c r="I16" s="10">
+        <v>16.557834934450799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10">
+        <v>1.0014999999999901</v>
+      </c>
+      <c r="C17" s="10">
+        <v>16.557834934450799</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1029.4855188717099</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1029.4855188717099</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1029.48556887171</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1029.48556887171</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1029.4856188717099</v>
+      </c>
+      <c r="I17" s="10">
+        <v>16.660783491337899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10">
+        <v>1.0015999999999901</v>
+      </c>
+      <c r="C18" s="10">
+        <v>16.660783491337899</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1028.3580962015801</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1028.3580962015801</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1028.35814620158</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1028.35814620158</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1028.3581962015801</v>
+      </c>
+      <c r="I18" s="10">
+        <v>16.763619305958098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10">
+        <v>1.00169999999999</v>
+      </c>
+      <c r="C19" s="10">
+        <v>16.763619305958098</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1027.2318082685999</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1027.2318082685999</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1027.2318582686</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1027.2318582686</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1027.2319082685999</v>
+      </c>
+      <c r="I19" s="10">
+        <v>16.866342491785002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10">
+        <v>1.00179999999999</v>
+      </c>
+      <c r="C20" s="10">
+        <v>16.866342491785002</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1026.1066539431099</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1026.1066539431099</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1026.10670394311</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1026.10670394311</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1026.1067539431101</v>
+      </c>
+      <c r="I20" s="10">
+        <v>16.9689531621793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10">
+        <v>1.00189999999999</v>
+      </c>
+      <c r="C21" s="10">
+        <v>16.9689531621793</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1024.9826320965501</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1024.9826320965501</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1024.98268209655</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1024.98268209655</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1024.9827320965501</v>
+      </c>
+      <c r="I21" s="10">
+        <v>17.071451430388901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10">
+        <v>1.00199999999999</v>
+      </c>
+      <c r="C22" s="10">
+        <v>17.071451430388901</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1023.85974160146</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1023.85974160146</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1023.85979160146</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1023.85979160146</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1023.8598416014599</v>
+      </c>
+      <c r="I22" s="10">
+        <v>17.173837409549101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477F2126-1F8A-468E-A79D-BAE63794956C}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>-0.99653379897036898</v>
+      </c>
+      <c r="E2" s="10">
+        <v>-0.99653379897036898</v>
+      </c>
+      <c r="F2" s="10">
+        <v>-0.99648379897036898</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-0.99648379897036898</v>
+      </c>
+      <c r="H2" s="10">
+        <v>-0.99643379897036899</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.99990035162010205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10">
+        <v>1.0001</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.99990035162010205</v>
+      </c>
+      <c r="D3" s="10">
+        <v>-0.99643575277261698</v>
+      </c>
+      <c r="E3" s="10">
+        <v>-0.99643575277261698</v>
+      </c>
+      <c r="F3" s="10">
+        <v>-0.99638575277261698</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-0.99638575277261698</v>
+      </c>
+      <c r="H3" s="10">
+        <v>-0.99633575277261699</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.99980071304482498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10">
+        <v>1.0002</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.99980071304482498</v>
+      </c>
+      <c r="D4" s="10">
+        <v>-0.99633771381109304</v>
+      </c>
+      <c r="E4" s="10">
+        <v>-0.99633771381109304</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-0.99628771381109305</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-0.99628771381109305</v>
+      </c>
+      <c r="H4" s="10">
+        <v>-0.99623771381109305</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.99970108427344395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10">
+        <v>1.0003</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.99970108427344395</v>
+      </c>
+      <c r="D5" s="10">
+        <v>-0.99623968209114899</v>
+      </c>
+      <c r="E5" s="10">
+        <v>-0.99623968209114899</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-0.996189682091149</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-0.996189682091149</v>
+      </c>
+      <c r="H5" s="10">
+        <v>-0.996139682091149</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.99960146530523497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10">
+        <v>1.0004</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.99960146530523497</v>
+      </c>
+      <c r="D6" s="10">
+        <v>-0.99614165761811302</v>
+      </c>
+      <c r="E6" s="10">
+        <v>-0.99614165761811302</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-0.99609165761811302</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-0.99609165761811302</v>
+      </c>
+      <c r="H6" s="10">
+        <v>-0.99604165761811303</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.99950185613947296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10">
+        <v>1.0004999999999999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.99950185613947296</v>
+      </c>
+      <c r="D7" s="10">
+        <v>-0.99604364039729898</v>
+      </c>
+      <c r="E7" s="10">
+        <v>-0.99604364039729898</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-0.99599364039729898</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-0.99599364039729898</v>
+      </c>
+      <c r="H7" s="10">
+        <v>-0.99594364039729899</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.99940225677543304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10">
+        <v>1.0005999999999999</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.99940225677543304</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-0.99594563043399797</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-0.99594563043399797</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-0.99589563043399798</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-0.99589563043399798</v>
+      </c>
+      <c r="H8" s="10">
+        <v>-0.99584563043399799</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.99930266721239003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10">
+        <v>1.0006999999999999</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.99930266721239003</v>
+      </c>
+      <c r="D9" s="10">
+        <v>-0.99584762773348301</v>
+      </c>
+      <c r="E9" s="10">
+        <v>-0.99584762773348301</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-0.99579762773348302</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-0.99579762773348302</v>
+      </c>
+      <c r="H9" s="10">
+        <v>-0.99574762773348302</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.99920308744961694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10">
+        <v>1.0007999999999999</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.99920308744961694</v>
+      </c>
+      <c r="D10" s="10">
+        <v>-0.99574963230100999</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-0.99574963230100999</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-0.99569963230101</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-0.99569963230101</v>
+      </c>
+      <c r="H10" s="10">
+        <v>-0.99564963230101</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.99910351748638704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10">
+        <v>1.0008999999999999</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.99910351748638704</v>
+      </c>
+      <c r="D11" s="10">
+        <v>-0.99565164414181095</v>
+      </c>
+      <c r="E11" s="10">
+        <v>-0.99565164414181095</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-0.99560164414181096</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-0.99560164414181096</v>
+      </c>
+      <c r="H11" s="10">
+        <v>-0.99555164414181097</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.999003957321973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.999003957321973</v>
+      </c>
+      <c r="D12" s="10">
+        <v>-0.99555366326110595</v>
+      </c>
+      <c r="E12" s="10">
+        <v>-0.99555366326110595</v>
+      </c>
+      <c r="F12" s="10">
+        <v>-0.99550366326110595</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-0.99550366326110595</v>
+      </c>
+      <c r="H12" s="10">
+        <v>-0.99545366326110596</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.99890440695564597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10">
+        <v>1.0010999999999901</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.99890440695564597</v>
+      </c>
+      <c r="D13" s="10">
+        <v>-0.99545568966408904</v>
+      </c>
+      <c r="E13" s="10">
+        <v>-0.99545568966408904</v>
+      </c>
+      <c r="F13" s="10">
+        <v>-0.99540568966408904</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-0.99540568966408904</v>
+      </c>
+      <c r="H13" s="10">
+        <v>-0.99535568966408905</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.99880486638667998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10">
+        <v>1.0011999999999901</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.99880486638667998</v>
+      </c>
+      <c r="D14" s="10">
+        <v>-0.99535772335594197</v>
+      </c>
+      <c r="E14" s="10">
+        <v>-0.99535772335594197</v>
+      </c>
+      <c r="F14" s="10">
+        <v>-0.99530772335594198</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-0.99530772335594198</v>
+      </c>
+      <c r="H14" s="10">
+        <v>-0.99525772335594198</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.99870533561434405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10">
+        <v>1.0012999999999901</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.99870533561434405</v>
+      </c>
+      <c r="D15" s="10">
+        <v>-0.99525976434182295</v>
+      </c>
+      <c r="E15" s="10">
+        <v>-0.99525976434182295</v>
+      </c>
+      <c r="F15" s="10">
+        <v>-0.99520976434182296</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-0.99520976434182296</v>
+      </c>
+      <c r="H15" s="10">
+        <v>-0.99515976434182296</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.99860581463790998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10">
+        <v>1.0013999999999901</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.99860581463790998</v>
+      </c>
+      <c r="D16" s="10">
+        <v>-0.99516181262687398</v>
+      </c>
+      <c r="E16" s="10">
+        <v>-0.99516181262687398</v>
+      </c>
+      <c r="F16" s="10">
+        <v>-0.99511181262687398</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-0.99511181262687398</v>
+      </c>
+      <c r="H16" s="10">
+        <v>-0.99506181262687399</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.99850630345664704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10">
+        <v>1.0014999999999901</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.99850630345664704</v>
+      </c>
+      <c r="D17" s="10">
+        <v>-0.99506386821621895</v>
+      </c>
+      <c r="E17" s="10">
+        <v>-0.99506386821621895</v>
+      </c>
+      <c r="F17" s="10">
+        <v>-0.99501386821621896</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-0.99501386821621896</v>
+      </c>
+      <c r="H17" s="10">
+        <v>-0.99496386821621896</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.99840680206982602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10">
+        <v>1.0015999999999901</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.99840680206982602</v>
+      </c>
+      <c r="D18" s="10">
+        <v>-0.99496593111496101</v>
+      </c>
+      <c r="E18" s="10">
+        <v>-0.99496593111496101</v>
+      </c>
+      <c r="F18" s="10">
+        <v>-0.99491593111496102</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-0.99491593111496102</v>
+      </c>
+      <c r="H18" s="10">
+        <v>-0.99486593111496102</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.99830731047671395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10">
+        <v>1.00169999999999</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.99830731047671395</v>
+      </c>
+      <c r="D19" s="10">
+        <v>-0.99486800132818798</v>
+      </c>
+      <c r="E19" s="10">
+        <v>-0.99486800132818798</v>
+      </c>
+      <c r="F19" s="10">
+        <v>-0.99481800132818798</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-0.99481800132818798</v>
+      </c>
+      <c r="H19" s="10">
+        <v>-0.99476800132818799</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.99820782867658198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10">
+        <v>1.00179999999999</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.99820782867658198</v>
+      </c>
+      <c r="D20" s="10">
+        <v>-0.99477007886096602</v>
+      </c>
+      <c r="E20" s="10">
+        <v>-0.99477007886096602</v>
+      </c>
+      <c r="F20" s="10">
+        <v>-0.99472007886096603</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-0.99472007886096603</v>
+      </c>
+      <c r="H20" s="10">
+        <v>-0.99467007886096603</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.99810835666869502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10">
+        <v>1.00189999999999</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.99810835666869502</v>
+      </c>
+      <c r="D21" s="10">
+        <v>-0.99467216371834599</v>
+      </c>
+      <c r="E21" s="10">
+        <v>-0.99467216371834599</v>
+      </c>
+      <c r="F21" s="10">
+        <v>-0.994622163718346</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-0.994622163718346</v>
+      </c>
+      <c r="H21" s="10">
+        <v>-0.994572163718346</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.99800889445232399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10">
+        <v>1.00199999999999</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.99800889445232399</v>
+      </c>
+      <c r="D22" s="10">
+        <v>-0.99457425590535797</v>
+      </c>
+      <c r="E22" s="10">
+        <v>-0.99457425590535797</v>
+      </c>
+      <c r="F22" s="10">
+        <v>-0.99452425590535798</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-0.99452425590535798</v>
+      </c>
+      <c r="H22" s="10">
+        <v>-0.99447425590535798</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.99790944202673304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>